--- a/ConsecrationDemo/Configs/MonsterSkills.xlsx
+++ b/ConsecrationDemo/Configs/MonsterSkills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E3479-0E3E-49AD-B7C6-27098DDE4CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E2A21-5CC6-42E6-A16B-31AE5559938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,104 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jimmy</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F8C6E1DA-54EA-434A-B08B-29C647C4868F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 = 固定距离伤害
+2 = 固定位置伤害
+3 = 向前冲刺伤害
+4 = 向前射出投掷物</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9933E2AB-3176-4B4B-BE37-EA066806F49E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 = 主角进入攻击范围
+2 = 前方与主角之间没有其他角色
+3 = 任意使用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BF6371D3-69DB-4BBF-9C9A-959BBAEBEDB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 = 无需配置
+1 = 前方
+2 = 后方
+3 = 前后两方</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +168,66 @@
   </si>
   <si>
     <t>attactType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方1格造成2点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangePar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标目前所在位置造成2点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前冲刺，对碰撞的第一个单位造成2点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前射出能量，对第一个单位造成2点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋风斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前后各1格造成2点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +249,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -396,23 +567,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15.19921875" customWidth="1"/>
-    <col min="3" max="3" width="25.06640625" customWidth="1"/>
+    <col min="3" max="3" width="40.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.9296875" customWidth="1"/>
     <col min="5" max="5" width="12.796875" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="13.86328125" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +602,17 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -445,8 +628,17 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -462,55 +654,143 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9000101</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>10</v>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9000201</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>9000301</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>9000401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>9000501</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
@@ -518,5 +798,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ConsecrationDemo/Configs/MonsterSkills.xlsx
+++ b/ConsecrationDemo/Configs/MonsterSkills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E2A21-5CC6-42E6-A16B-31AE5559938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E340A1A-FEDF-4748-871E-58443D76745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1103" windowWidth="28815" windowHeight="12172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,35 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9933E2AB-3176-4B4B-BE37-EA066806F49E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Jimmy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 = 主角进入攻击范围
-2 = 前方与主角之间没有其他角色
-3 = 任意使用</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BF6371D3-69DB-4BBF-9C9A-959BBAEBEDB3}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BF6371D3-69DB-4BBF-9C9A-959BBAEBEDB3}">
       <text>
         <r>
           <rPr>
@@ -111,8 +83,34 @@
           <t xml:space="preserve">
 0 = 无需配置
 1 = 前方
-2 = 后方
-3 = 前后两方</t>
+2 = 前后两方</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{6E32EA72-E04A-446E-B54E-78778488A250}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Jimmy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0~8 = 具体位置
+-1=主角位置</t>
         </r>
       </text>
     </comment>
@@ -121,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,14 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>useType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击范围方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,6 +218,18 @@
   </si>
   <si>
     <t>对前后各1格造成2点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击位置参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posPar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +573,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -581,9 +583,9 @@
     <col min="3" max="3" width="40.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.9296875" customWidth="1"/>
     <col min="5" max="5" width="12.796875" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" customWidth="1"/>
-    <col min="7" max="7" width="13.86328125" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -603,13 +605,13 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -629,13 +631,13 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -661,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -687,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -695,10 +697,10 @@
         <v>9000201</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -707,13 +709,13 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -721,10 +723,10 @@
         <v>9000301</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -733,7 +735,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -747,10 +749,10 @@
         <v>9000401</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -759,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -773,10 +775,10 @@
         <v>9000501</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -785,13 +787,13 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ConsecrationDemo/Configs/MonsterSkills.xlsx
+++ b/ConsecrationDemo/Configs/MonsterSkills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E340A1A-FEDF-4748-871E-58443D76745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FBA0E1-4DFF-46DE-B27E-B1A376E15E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1103" windowWidth="28815" windowHeight="12172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/ConsecrationDemo/Configs/MonsterSkills.xlsx
+++ b/ConsecrationDemo/Configs/MonsterSkills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FBA0E1-4DFF-46DE-B27E-B1A376E15E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D123ED-7E7E-46B5-9342-315650E1590D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对前方1格造成2点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击范围方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +226,10 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方3格造成2点伤害并击退3格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -605,13 +605,13 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -631,13 +631,13 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -674,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>9000201</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -723,10 +723,10 @@
         <v>9000301</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -749,10 +749,10 @@
         <v>9000401</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -775,10 +775,10 @@
         <v>9000501</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8">
         <v>2</v>

--- a/ConsecrationDemo/Configs/MonsterSkills.xlsx
+++ b/ConsecrationDemo/Configs/MonsterSkills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D123ED-7E7E-46B5-9342-315650E1590D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFE7E22-53A3-4CA0-A077-DA57969451D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="28815" windowHeight="12173" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="158" yWindow="1073" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/ConsecrationDemo/Configs/MonsterSkills.xlsx
+++ b/ConsecrationDemo/Configs/MonsterSkills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFE7E22-53A3-4CA0-A077-DA57969451D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9A3202-D477-4BF4-AD0B-6137CADC5CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="158" yWindow="1073" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1628" windowWidth="22215" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,14 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旋风斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对前后各1格造成2点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击位置参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,7 +221,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对前方3格造成2点伤害并击退3格</t>
+    <t>对前方1格造成2点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对0/2/4/6/8造成3点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对1/3/5/7造成3点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,4,6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤新怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在随机位置召唤2个小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光普渡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光普渡2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对相邻1格造成3点伤害并击退1格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -586,6 +618,7 @@
     <col min="6" max="6" width="13.86328125" customWidth="1"/>
     <col min="7" max="7" width="12.59765625" customWidth="1"/>
     <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -611,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -637,7 +670,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -663,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -674,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -686,7 +719,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -775,13 +808,13 @@
         <v>9000501</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -793,6 +826,84 @@
         <v>1</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>9000502</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9000503</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9000504</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0</v>
       </c>
     </row>

--- a/ConsecrationDemo/Configs/MonsterSkills.xlsx
+++ b/ConsecrationDemo/Configs/MonsterSkills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202504\BooomConsecration\ConsecrationDemo\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9A3202-D477-4BF4-AD0B-6137CADC5CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83117574-0FD4-450C-87AB-0374F35C8898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1628" windowWidth="22215" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="14205" windowHeight="11294" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,22 @@
   </si>
   <si>
     <t>对相邻1格造成3点伤害并击退1格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方2格造成2点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标目前所在位置造成3点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前射出能量，对第一个单位造成3点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对相邻2格造成3点伤害并击退1格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -701,7 +717,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>9000101</v>
+        <v>9000001</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -727,45 +743,45 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>9000201</v>
+        <v>9000101</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>9000301</v>
+        <v>9000201</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -774,24 +790,24 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>9000401</v>
+        <v>9000301</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -805,25 +821,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>9000501</v>
+        <v>9000401</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -831,39 +847,39 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>9000502</v>
+        <v>9000501</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>9000503</v>
+        <v>9000502</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -877,33 +893,163 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
-        <v>29</v>
+      <c r="H10">
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
+        <v>9000503</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>9000504</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>9000601</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>9000602</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>9000603</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>9000604</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
     </row>
